--- a/data/raw_files/Ref_list.xlsx
+++ b/data/raw_files/Ref_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/raw_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC28200-CC68-4E46-8F9B-5C80878C50D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98880990-1644-3C43-960C-FB83CD553E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38420" yWindow="1180" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Author</t>
   </si>
@@ -113,6 +113,45 @@
     <t>Periodic reports on thermal generation and CHP (Thermische Stromproduktion).
 Values are aggregated by generator type, not by fuel.
 Nuclear is excluded</t>
+  </si>
+  <si>
+    <t>elec, chp, heat</t>
+  </si>
+  <si>
+    <t>biomass, waste, solar, hydro</t>
+  </si>
+  <si>
+    <t>Data on renewable generation in switzerland, disaggregated by technology</t>
+  </si>
+  <si>
+    <t>https://pubdb.bfe.admin.ch/de/publication/download/10955</t>
+  </si>
+  <si>
+    <t>Swiss statistics renewable energies</t>
+  </si>
+  <si>
+    <t>Aggregated energy data from the Swiss control block</t>
+  </si>
+  <si>
+    <t>swissgrid</t>
+  </si>
+  <si>
+    <t>2009-2022</t>
+  </si>
+  <si>
+    <t>elec</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>Aggregated data on net transfer capacities</t>
+  </si>
+  <si>
+    <t>https://www.swissgrid.ch/de/home/customers/topics/energy-data-ch.html</t>
   </si>
 </sst>
 </file>
@@ -174,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -209,6 +248,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -527,9 +572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +583,7 @@
     <col min="2" max="2" width="49.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="8"/>
-    <col min="5" max="5" width="11" style="8"/>
+    <col min="5" max="5" width="11" style="14"/>
     <col min="6" max="6" width="30.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="81" style="1" customWidth="1"/>
@@ -558,7 +603,7 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -587,7 +632,7 @@
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -616,7 +661,7 @@
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -632,11 +677,60 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I5" s="3"/>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I6" s="3"/>
@@ -1299,7 +1393,7 @@
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
       <c r="D241"/>
-      <c r="E241"/>
+      <c r="E241" s="9"/>
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
       <c r="H241" s="9"/>
@@ -1309,7 +1403,7 @@
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
       <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
+      <c r="E242" s="1"/>
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
       <c r="H242" s="9"/>
@@ -1319,7 +1413,7 @@
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
       <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
+      <c r="E243" s="1"/>
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
       <c r="H243" s="9"/>
@@ -1329,7 +1423,7 @@
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244"/>
-      <c r="E244"/>
+      <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
       <c r="H244" s="9"/>
@@ -1339,7 +1433,7 @@
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
+      <c r="E245" s="1"/>
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
       <c r="H245" s="9"/>
@@ -1349,7 +1443,7 @@
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
       <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
+      <c r="E246" s="1"/>
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
       <c r="H246" s="9"/>
@@ -1359,7 +1453,7 @@
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
       <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
+      <c r="E247" s="1"/>
       <c r="F247" s="9"/>
       <c r="G247" s="9"/>
       <c r="H247" s="9"/>

--- a/data/raw_files/Ref_list.xlsx
+++ b/data/raw_files/Ref_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/raw_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98880990-1644-3C43-960C-FB83CD553E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0AB133-E96B-9146-8631-B50EB398DC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="1180" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Author</t>
   </si>
@@ -152,6 +152,30 @@
   </si>
   <si>
     <t>https://www.swissgrid.ch/de/home/customers/topics/energy-data-ch.html</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Transport fuel prices and taxes in Europe</t>
+  </si>
+  <si>
+    <t>European Environment Agency</t>
+  </si>
+  <si>
+    <t>1980-2018</t>
+  </si>
+  <si>
+    <t>gasoline, diesel</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Nominal cost of fuel</t>
+  </si>
+  <si>
+    <t>https://www.eea.europa.eu/data-and-maps/indicators/fuel-prices-and-taxes/assessment-4</t>
   </si>
 </sst>
 </file>
@@ -572,9 +596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,8 +756,34 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I6" s="3"/>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I7" s="3"/>
@@ -2272,6 +2322,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" location="kw-86936" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{F2BFD8CD-E70A-114E-AF72-6791AD923A9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
